--- a/branches/mpd-r4b/ValueSet-language-bcp-vs.xlsx
+++ b/branches/mpd-r4b/ValueSet-language-bcp-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/ValueSet-language-bcp-vs.xlsx
+++ b/branches/mpd-r4b/ValueSet-language-bcp-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/ValueSet-language-bcp-vs.xlsx
+++ b/branches/mpd-r4b/ValueSet-language-bcp-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/ValueSet-language-bcp-vs.xlsx
+++ b/branches/mpd-r4b/ValueSet-language-bcp-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/ValueSet-language-bcp-vs.xlsx
+++ b/branches/mpd-r4b/ValueSet-language-bcp-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:07:41+00:00</t>
+    <t>2022-11-22T20:42:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/ValueSet-language-bcp-vs.xlsx
+++ b/branches/mpd-r4b/ValueSet-language-bcp-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
